--- a/StructureDefinition-ext-R5-PlanDefinition.act.linkId.xlsx
+++ b/StructureDefinition-ext-R5-PlanDefinition.act.linkId.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `PlanDefinition.action.linkId` 0..1 `string`
 Following are the generation technical comments:
 Element `PlanDefinition.action.linkId` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.linkId` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+Element `PlanDefinition.action.linkId` is will have a context of PlanDefinition.action based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -141,7 +141,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:PlanDefinition.action</t>
   </si>
   <si>
     <t>ID</t>
